--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N2">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q2">
-        <v>0.058687104103</v>
+        <v>0.012166970826</v>
       </c>
       <c r="R2">
-        <v>0.5281839369270001</v>
+        <v>0.109502737434</v>
       </c>
       <c r="S2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="T2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>22.132767</v>
       </c>
       <c r="O3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q3">
         <v>3.115253353551</v>
@@ -632,10 +632,10 @@
         <v>28.037280181959</v>
       </c>
       <c r="S3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="T3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N4">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q4">
-        <v>0.164333209337</v>
+        <v>0.154400551633</v>
       </c>
       <c r="R4">
-        <v>1.478998884033</v>
+        <v>1.389604964697</v>
       </c>
       <c r="S4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="T4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
     </row>
   </sheetData>
